--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFF489-00AC-9B4E-A4DF-86540D7F0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CAD40-D213-024F-ADD4-1BEFBF745098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20500" yWindow="10400" windowWidth="47340" windowHeight="16140" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Fachsupport Finanzierungen / Bereichsleiter</t>
-  </si>
-  <si>
-    <t>zusätzlich zu Tätigkeiten als Projektleiter/Controller: 
-• Teamleitung: Führung von zwei Mitarbeitenden
-• Projektmanagement: Vertretung Genossenschaft Migros 
-Ostschweiz in nationalen Projekten / Gremien</t>
   </si>
   <si>
     <t>Mitarbeit in diversen Abteilungen der Bank (Kreditberatung, Anlageberatung, Zahlungsverkehr, Buchhaltung, Börsenhandel usw.)</t>
@@ -219,6 +213,56 @@
 • Organisation von Anlässen
 • Versand der Rechnungen
 • diverse weitere Tätigkeiten </t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>FHS.jpg</t>
+  </si>
+  <si>
+    <t>HSLU.jpg</t>
+  </si>
+  <si>
+    <t>acrevis.jpg</t>
+  </si>
+  <si>
+    <t>Migros.jpg</t>
+  </si>
+  <si>
+    <t>Wuerth.jpg</t>
+  </si>
+  <si>
+    <t>agis.jpg</t>
+  </si>
+  <si>
+    <t>dalix.jpg</t>
+  </si>
+  <si>
+    <t>VZPM</t>
+  </si>
+  <si>
+    <t>TÜV SÜD</t>
+  </si>
+  <si>
+    <t>VZPM.jpg</t>
+  </si>
+  <si>
+    <t>tuevsued.jpg</t>
+  </si>
+  <si>
+    <t>kbz.jpg</t>
+  </si>
+  <si>
+    <t>zauberlaterne.jpg</t>
+  </si>
+  <si>
+    <t>zusätzlich zu Tätigkeiten als Projektleiter/Controller: 
+• Teamleitung: Führung von zwei Mitarbeitenden
+• Projektmanagement: Vertretung Genossenschaft Migros Ostschweiz in nationalen Projekten / Gremien</t>
+  </si>
+  <si>
+    <t>TCSG.png</t>
   </si>
 </sst>
 </file>
@@ -576,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6950E39-7D10-4061-A048-B3D838651420}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,6 +658,9 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -626,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -636,6 +683,9 @@
       </c>
       <c r="G2" s="1">
         <v>41121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -643,13 +693,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>5.5</v>
@@ -659,6 +709,9 @@
       </c>
       <c r="G3" s="1">
         <v>43343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -666,20 +719,23 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>44440</v>
       </c>
       <c r="G4" s="1">
         <f ca="1">TODAY()</f>
-        <v>45791</v>
+        <v>45797</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -693,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -702,6 +758,9 @@
       <c r="G5" s="1">
         <v>41121</v>
       </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -714,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -723,6 +782,9 @@
       <c r="G6" s="1">
         <v>43100</v>
       </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -735,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -744,6 +806,9 @@
       <c r="G7" s="1">
         <v>43404</v>
       </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -756,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -765,8 +830,11 @@
       <c r="G8" s="1">
         <v>44135</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -777,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -786,6 +854,9 @@
       <c r="G9" s="1">
         <v>44316</v>
       </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -798,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -807,6 +878,9 @@
       <c r="G10" s="1">
         <v>44834</v>
       </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -819,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -828,20 +902,22 @@
       <c r="G11" s="1">
         <v>44957</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -849,16 +925,18 @@
       </c>
       <c r="G12" s="1">
         <f ca="1">TODAY()</f>
-        <v>45791</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>45797</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -873,7 +951,9 @@
       <c r="G13" s="1">
         <v>44561</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -886,13 +966,16 @@
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
         <v>43952</v>
       </c>
       <c r="G14" s="1">
         <v>45747</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -900,19 +983,22 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="1">
         <v>43709</v>
       </c>
       <c r="G15" s="1">
         <v>43804</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,19 +1006,22 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>44958</v>
       </c>
       <c r="G16" s="1">
         <v>45010</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CAD40-D213-024F-ADD4-1BEFBF745098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441094EA-CC68-854E-9529-34FF7170E3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="G4" s="1">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="H4" t="s">
         <v>54</v>
@@ -882,7 +882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" s="1">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>59</v>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441094EA-CC68-854E-9529-34FF7170E3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B48EAF-07D1-014E-BAD4-991D4596D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
+    <workbookView xWindow="56560" yWindow="4860" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -218,16 +218,7 @@
     <t>Bild</t>
   </si>
   <si>
-    <t>FHS.jpg</t>
-  </si>
-  <si>
-    <t>HSLU.jpg</t>
-  </si>
-  <si>
     <t>acrevis.jpg</t>
-  </si>
-  <si>
-    <t>Migros.jpg</t>
   </si>
   <si>
     <t>Wuerth.jpg</t>
@@ -263,6 +254,15 @@
   </si>
   <si>
     <t>TCSG.png</t>
+  </si>
+  <si>
+    <t>hslu.jpg</t>
+  </si>
+  <si>
+    <t>fhs.jpg</t>
+  </si>
+  <si>
+    <t>migros.jpg</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6950E39-7D10-4061-A048-B3D838651420}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
         <v>41121</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>43343</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>45798</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>41121</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>43100</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>43404</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>44135</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -855,7 +855,7 @@
         <v>44316</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>44834</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>44957</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>45798</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>44561</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>45747</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -998,7 +998,7 @@
         <v>43804</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -1021,7 +1021,7 @@
         <v>45010</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B48EAF-07D1-014E-BAD4-991D4596D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD3A74-4260-4D4E-B3D9-6F5B3F7CD3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56560" yWindow="4860" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -119,12 +119,6 @@
     <t>Zauberlaterne St.Gallen</t>
   </si>
   <si>
-    <t>Sales / Marketing</t>
-  </si>
-  <si>
-    <t>AGIS AG, Teufen</t>
-  </si>
-  <si>
     <t>Gründungsmitglied bei der Zauberlaterne St.Gallen und Führung der Finanzen</t>
   </si>
   <si>
@@ -135,11 +129,6 @@
   </si>
   <si>
     <t>Mitarbeit in diversen Abteilungen der Bank (Kreditberatung, Anlageberatung, Zahlungsverkehr, Buchhaltung, Börsenhandel usw.)</t>
-  </si>
-  <si>
-    <t>• Verkauf
-• Durchführung Demos
-• Unterstützung Geschäftsführer/Geschäftsleitung</t>
   </si>
   <si>
     <t>MSc in Applied Information and Data Science</t>
@@ -222,9 +211,6 @@
   </si>
   <si>
     <t>Wuerth.jpg</t>
-  </si>
-  <si>
-    <t>agis.jpg</t>
   </si>
   <si>
     <t>dalix.jpg</t>
@@ -618,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6950E39-7D10-4061-A048-B3D838651420}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -673,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -685,7 +671,7 @@
         <v>41121</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -693,13 +679,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>5.5</v>
@@ -711,7 +697,7 @@
         <v>43343</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -719,13 +705,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>44440</v>
@@ -735,7 +721,7 @@
         <v>45798</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -749,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -759,7 +745,7 @@
         <v>41121</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -767,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -783,7 +769,7 @@
         <v>43100</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -797,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -807,7 +793,7 @@
         <v>43404</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -821,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -831,7 +817,7 @@
         <v>44135</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -845,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -855,7 +841,7 @@
         <v>44316</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -869,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -879,149 +865,125 @@
         <v>44834</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <v>44835</v>
+        <v>44958</v>
       </c>
       <c r="G11" s="1">
-        <v>44957</v>
+        <f ca="1">TODAY()</f>
+        <v>45798</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <v>44958</v>
+        <v>43739</v>
       </c>
       <c r="G12" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45798</v>
+        <v>44561</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="1">
-        <v>43739</v>
+        <v>43952</v>
       </c>
       <c r="G13" s="1">
-        <v>44561</v>
+        <v>45747</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1">
-        <v>43952</v>
+        <v>43709</v>
       </c>
       <c r="G14" s="1">
-        <v>45747</v>
+        <v>43804</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
-        <v>43709</v>
+        <v>44958</v>
       </c>
       <c r="G15" s="1">
-        <v>43804</v>
+        <v>45010</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1">
-        <v>44958</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45010</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD3A74-4260-4D4E-B3D9-6F5B3F7CD3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6CAF7-22DF-754B-B607-F9ABC8BB290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56560" yWindow="4860" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
@@ -156,11 +156,6 @@
     <t>dalix GmbH, St.Gallen</t>
   </si>
   <si>
-    <t>• Konzeption und Umsetzung von Data Analytics Projekten in der Öffentlichen Verwaltung im Spezifischen im Aufbau von BI-Reporting Plattformen
-• Beratung und Projektleitung im Bereich Data Analytics in der Industrie
-• diverse Projektleitungen</t>
-  </si>
-  <si>
     <t>Hermes Advanced</t>
   </si>
   <si>
@@ -249,6 +244,12 @@
   </si>
   <si>
     <t>migros.jpg</t>
+  </si>
+  <si>
+    <t>• Projektmanagement: Leitung von IT-und Daten-Projekten in verschiedenen Organisationen
+• Business Intelligence: Erstellung und Automatisierung von Reportings mit Power BI
+• Kundenmanagement: Erstellung Offerten und Verträge / Akquise von Kundinnen und Kunden
+• Data Analytics: Umsetzung Sponsoring Vereinbarung mit der Frauenquipe des FC St.Gallen 1879 im Bereich Data Analytics</t>
   </si>
 </sst>
 </file>
@@ -606,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6950E39-7D10-4061-A048-B3D838651420}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -659,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -671,7 +672,7 @@
         <v>41121</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -685,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>5.5</v>
@@ -697,7 +698,7 @@
         <v>43343</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -711,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>44440</v>
@@ -721,7 +722,7 @@
         <v>45798</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -745,7 +746,7 @@
         <v>41121</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -759,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -769,7 +770,7 @@
         <v>43100</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -793,7 +794,7 @@
         <v>43404</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -807,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -817,7 +818,7 @@
         <v>44135</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -831,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -841,7 +842,7 @@
         <v>44316</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -855,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -865,10 +866,10 @@
         <v>44834</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -879,7 +880,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -890,7 +891,7 @@
         <v>45798</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -914,7 +915,7 @@
         <v>44561</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -928,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1">
         <v>43952</v>
@@ -937,7 +938,7 @@
         <v>45747</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -960,7 +961,7 @@
         <v>43804</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -968,13 +969,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>44958</v>
@@ -983,7 +984,7 @@
         <v>45010</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6CAF7-22DF-754B-B607-F9ABC8BB290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E6BF0-8B64-624A-A061-91EDAB3B4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56560" yWindow="4860" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
@@ -156,12 +156,6 @@
     <t>dalix GmbH, St.Gallen</t>
   </si>
   <si>
-    <t>Hermes Advanced</t>
-  </si>
-  <si>
-    <t>Projektmanagement Weiterbildung (Hermes Advanced)</t>
-  </si>
-  <si>
     <t>• Kundenmanagement: Bearbeitung von Kundenanfragen
 • Geschäftsentwicklung: Erarbeitung von Konzepten für die Geschäftsleitung
 • Controlling: Erstellung Analysen für Bereichsleiter und Geschäftsleitung</t>
@@ -250,6 +244,12 @@
 • Business Intelligence: Erstellung und Automatisierung von Reportings mit Power BI
 • Kundenmanagement: Erstellung Offerten und Verträge / Akquise von Kundinnen und Kunden
 • Data Analytics: Umsetzung Sponsoring Vereinbarung mit der Frauenquipe des FC St.Gallen 1879 im Bereich Data Analytics</t>
+  </si>
+  <si>
+    <t>Hermes 5.1 Advanced</t>
+  </si>
+  <si>
+    <t>Projektmanagement Weiterbildung (Hermes 5.1 Advanced)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -672,7 +672,7 @@
         <v>41121</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>5.5</v>
@@ -698,7 +698,7 @@
         <v>43343</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>44440</v>
@@ -722,7 +722,7 @@
         <v>45798</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
         <v>41121</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -770,7 +770,7 @@
         <v>43100</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>43404</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -818,7 +818,7 @@
         <v>44135</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -842,7 +842,7 @@
         <v>44316</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -866,7 +866,7 @@
         <v>44834</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -891,7 +891,7 @@
         <v>45798</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>44561</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1">
         <v>43952</v>
@@ -938,7 +938,7 @@
         <v>45747</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -961,7 +961,7 @@
         <v>43804</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,13 +969,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
         <v>44958</v>
@@ -984,7 +984,7 @@
         <v>45010</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E6BF0-8B64-624A-A061-91EDAB3B4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F969F48-6E7B-C54D-A19A-71084BC6E01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56560" yWindow="4860" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
+    <workbookView xWindow="29920" yWindow="5260" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6950E39-7D10-4061-A048-B3D838651420}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,8 +718,7 @@
         <v>44440</v>
       </c>
       <c r="G4" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45798</v>
+        <v>45138</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F969F48-6E7B-C54D-A19A-71084BC6E01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096FEB6-0576-1F44-A9ED-C42691483FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29920" yWindow="5260" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{A562BE8D-8BD6-4B69-B3A4-0A22EF180B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="G11" s="1">
         <f ca="1">TODAY()</f>
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
